--- a/test/integration/project/data_penjualan.xlsx
+++ b/test/integration/project/data_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -27,24 +27,21 @@
     <sheet name="BilyetGiro" sheetId="30" r:id="rId18"/>
     <sheet name="KewajibanPembayaran" sheetId="22" r:id="rId19"/>
     <sheet name="kewajibanpembayaran_items" sheetId="23" r:id="rId20"/>
-    <sheet name="FakturJual" sheetId="25" r:id="rId21"/>
-    <sheet name="PenerimaanBarang" sheetId="41" r:id="rId22"/>
-    <sheet name="PenerimaanBarang_items" sheetId="42" r:id="rId23"/>
+    <sheet name="returfaktur" sheetId="43" r:id="rId21"/>
+    <sheet name="returfaktur_items" sheetId="44" r:id="rId22"/>
+    <sheet name="FakturJual" sheetId="25" r:id="rId23"/>
     <sheet name="FakturJual_retur" sheetId="39" r:id="rId24"/>
     <sheet name="FakturJual_listItemFaktur" sheetId="26" r:id="rId25"/>
     <sheet name="PencairanPoin" sheetId="32" r:id="rId26"/>
     <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId27"/>
     <sheet name="pesan" sheetId="37" r:id="rId28"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -547,15 +544,6 @@
     <t>retur_ORDER</t>
   </si>
   <si>
-    <t>PO_ID</t>
-  </si>
-  <si>
-    <t>PO_ORDER</t>
-  </si>
-  <si>
-    <t>PenerimaanBarang_id</t>
-  </si>
-  <si>
     <t>Mr. New</t>
   </si>
   <si>
@@ -587,13 +575,16 @@
   </si>
   <si>
     <t>jumlahTukar</t>
+  </si>
+  <si>
+    <t>ReturFaktur_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -608,13 +599,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -629,13 +632,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1763,7 +1767,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -2246,7 +2250,7 @@
         <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
         <v>58</v>
@@ -2279,6 +2283,97 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:R8"/>
@@ -2618,108 +2713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:IV65536"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2751,7 +2750,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H8"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3130,7 +3129,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -3196,7 +3195,7 @@
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3580,7 +3579,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H13">
         <v>60</v>
@@ -5074,25 +5073,25 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>176</v>
-      </c>
-      <c r="J1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">

--- a/test/integration/project/data_penjualan.xlsx
+++ b/test/integration/project/data_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -36,12 +36,15 @@
     <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId27"/>
     <sheet name="pesan" sheetId="37" r:id="rId28"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -220,9 +223,6 @@
     <t>nomor</t>
   </si>
   <si>
-    <t>tanggalItemStok</t>
-  </si>
-  <si>
     <t>tanggal</t>
   </si>
   <si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>ReturFaktur_id</t>
+  </si>
+  <si>
+    <t>saldo</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -640,6 +643,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,7 +1238,7 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1274,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1283,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1328,16 +1332,16 @@
         <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1349,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -1360,7 +1364,7 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1">
         <v>41748</v>
@@ -1380,7 +1384,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1">
         <v>41748</v>
@@ -1400,13 +1404,13 @@
         <v>-3</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1">
         <v>41748</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="1">
         <v>41749</v>
@@ -1415,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4">
         <v>-3</v>
@@ -1426,16 +1430,16 @@
         <v>-4</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>41748</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="1">
         <v>41748</v>
@@ -1447,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5">
         <v>-3</v>
@@ -1458,16 +1462,16 @@
         <v>-5</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1">
         <v>41748</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1">
         <v>41748</v>
@@ -1479,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6">
         <v>-3</v>
@@ -1510,7 +1514,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -1519,7 +1523,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1630,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1648,16 +1652,16 @@
         <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1677,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -1686,7 +1690,7 @@
         <v>-1</v>
       </c>
       <c r="K2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L2">
         <v>50</v>
@@ -1709,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3">
         <v>-2</v>
@@ -1738,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>-3</v>
@@ -1767,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1802,10 +1806,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1866,19 +1870,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1905,13 +1909,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
         <v>146</v>
-      </c>
-      <c r="C1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1988,19 +1992,19 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2014,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1">
         <v>41409</v>
@@ -2023,7 +2027,7 @@
         <v>20000</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2165,10 +2169,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2182,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2199,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2232,25 +2236,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H1" t="s">
         <v>58</v>
@@ -2313,10 +2317,10 @@
         <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -2325,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -2356,7 +2360,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>17</v>
@@ -2365,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2406,16 +2410,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -2424,7 +2428,7 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -2436,39 +2440,39 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>98</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" t="s">
-        <v>101</v>
-      </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1">
         <v>41748</v>
@@ -2483,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1"/>
       <c r="R2" t="b">
@@ -2492,13 +2496,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>-2</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
         <v>41748</v>
@@ -2513,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3">
@@ -2525,13 +2529,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>-3</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1">
         <v>41748</v>
@@ -2546,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4" s="1">
         <v>41778</v>
@@ -2566,13 +2570,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>-4</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="1">
         <v>41748</v>
@@ -2598,13 +2602,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>-5</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1">
         <v>41748</v>
@@ -2633,13 +2637,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>-6</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1">
         <v>41748</v>
@@ -2671,13 +2675,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8">
         <v>-7</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1">
         <v>41748</v>
@@ -2718,7 +2722,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2730,13 +2734,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2767,13 +2771,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2788,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2990,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3002,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -3014,16 +3018,16 @@
         <v>58</v>
       </c>
       <c r="I1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
         <v>151</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +3053,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -3058,7 +3062,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3083,13 +3087,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3098,22 +3102,22 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" t="s">
-        <v>161</v>
-      </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
@@ -3159,10 +3163,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3174,28 +3178,28 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" t="s">
         <v>155</v>
       </c>
-      <c r="M1" t="s">
-        <v>156</v>
-      </c>
       <c r="N1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O1" t="s">
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3579,7 +3583,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13">
         <v>60</v>
@@ -3647,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3661,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3675,7 +3679,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3689,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3703,7 +3707,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3924,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -3938,13 +3942,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3958,13 +3962,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3">
         <v>-2</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3978,13 +3982,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4">
         <v>-3</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4412,10 +4416,10 @@
         <v>31</v>
       </c>
       <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
         <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5036,391 +5040,397 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>171</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>172</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>173</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>174</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>175</v>
       </c>
-      <c r="L1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="3">
+      <c r="D2"/>
+      <c r="E2" s="3">
         <v>41628</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" s="3">
+      <c r="D3"/>
+      <c r="E3" s="3">
         <v>41654</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="3">
+      <c r="D4"/>
+      <c r="E4" s="3">
         <v>41649</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" s="3">
+      <c r="D5"/>
+      <c r="E5" s="3">
         <v>41678</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6"/>
-      <c r="D6" s="3">
+      <c r="D6"/>
+      <c r="E6" s="3">
         <v>41654</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" s="3">
+      <c r="D7"/>
+      <c r="E7" s="3">
         <v>41649</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" s="3">
+      <c r="D8"/>
+      <c r="E8" s="3">
         <v>41651</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" s="3">
+      <c r="D9"/>
+      <c r="E9" s="3">
         <v>41654</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" s="3">
+      <c r="D10"/>
+      <c r="E10" s="3">
         <v>41654</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" s="3">
+      <c r="D11"/>
+      <c r="E11" s="3">
         <v>41654</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" s="3">
+      <c r="D12"/>
+      <c r="E12" s="3">
         <v>41640</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-11</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" s="3">
+      <c r="D13"/>
+      <c r="E13" s="3">
         <v>41672</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" s="3">
+      <c r="D14"/>
+      <c r="E14" s="3">
         <v>41640</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" s="3">
+      <c r="D15"/>
+      <c r="E15" s="3">
         <v>41669</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-13</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="3">
+      <c r="D16"/>
+      <c r="E16" s="3">
         <v>41672</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-14</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" s="3">
+      <c r="D17"/>
+      <c r="E17" s="3">
         <v>41685</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-15</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" s="3">
+      <c r="D18"/>
+      <c r="E18" s="3">
         <v>41685</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-16</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" s="3">
-        <v>41692</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+      <c r="E19" s="3">
+        <v>41692</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-17</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" s="3">
+      <c r="D20"/>
+      <c r="E20" s="3">
         <v>41646</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-18</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" s="1">
+      <c r="D21"/>
+      <c r="E21" s="1">
         <v>40179</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-18</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" s="1">
+      <c r="D22"/>
+      <c r="E22" s="1">
         <v>40188</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-18</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" s="1">
+      <c r="D23"/>
+      <c r="E23" s="1">
         <v>40198</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>

--- a/test/integration/project/data_penjualan.xlsx
+++ b/test/integration/project/data_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -1301,8 +1301,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1389,11 +1389,23 @@
       <c r="D3" s="1">
         <v>41748</v>
       </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1">
+        <v>41748</v>
+      </c>
       <c r="H3" s="1">
         <v>41749</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
       </c>
       <c r="L3">
         <v>-3</v>
@@ -2382,8 +2394,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5042,7 +5054,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/test/integration/project/data_penjualan.xlsx
+++ b/test/integration/project/data_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>saldo</t>
+  </si>
+  <si>
+    <t>ongkosKirimBeli</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3143,10 +3146,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3155,16 +3158,16 @@
     <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3181,40 +3184,43 @@
         <v>133</v>
       </c>
       <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>154</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>155</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>158</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -3230,29 +3236,29 @@
       <c r="E2">
         <v>1100</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>37</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -3268,26 +3274,26 @@
       <c r="E3">
         <v>1600</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -3303,26 +3309,26 @@
       <c r="E4">
         <v>1000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -3338,23 +3344,23 @@
       <c r="E5">
         <v>13100</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
@@ -3370,23 +3376,23 @@
       <c r="E6">
         <v>600</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
@@ -3402,23 +3408,23 @@
       <c r="E7">
         <v>900</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-7</v>
       </c>
@@ -3434,23 +3440,23 @@
       <c r="E8">
         <v>200</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-8</v>
       </c>
@@ -3466,23 +3472,23 @@
       <c r="E9">
         <v>500</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-9</v>
       </c>
@@ -3498,23 +3504,23 @@
       <c r="E10">
         <v>400</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -3530,23 +3536,23 @@
       <c r="E11">
         <v>1500</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-11</v>
       </c>
@@ -3562,23 +3568,23 @@
       <c r="E12">
         <v>200</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-12</v>
       </c>
@@ -3594,19 +3600,19 @@
       <c r="E13">
         <v>200</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>60</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>-1</v>
-      </c>
       <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
         <v>1</v>
       </c>
     </row>

--- a/test/integration/project/data_penjualan.xlsx
+++ b/test/integration/project/data_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -15,36 +15,34 @@
     <sheet name="Sales" sheetId="28" r:id="rId6"/>
     <sheet name="StokProduk" sheetId="3" r:id="rId7"/>
     <sheet name="PeriodeItemStok" sheetId="5" r:id="rId8"/>
-    <sheet name="PeriodeItemStok_listItem" sheetId="4" r:id="rId9"/>
-    <sheet name="BonusPenjualan" sheetId="16" r:id="rId10"/>
-    <sheet name="BonusPenjualan_items" sheetId="17" r:id="rId11"/>
-    <sheet name="PengeluaranBarang" sheetId="18" r:id="rId12"/>
-    <sheet name="PengeluaranBarang_items" sheetId="27" r:id="rId13"/>
-    <sheet name="Konsumen" sheetId="20" r:id="rId14"/>
-    <sheet name="Konsumen_FakturJual" sheetId="31" r:id="rId15"/>
-    <sheet name="Konsumen_listRiwayatPoin" sheetId="38" r:id="rId16"/>
-    <sheet name="Konsumen_hargaTerakhir" sheetId="21" r:id="rId17"/>
-    <sheet name="BilyetGiro" sheetId="30" r:id="rId18"/>
-    <sheet name="KewajibanPembayaran" sheetId="22" r:id="rId19"/>
-    <sheet name="kewajibanpembayaran_items" sheetId="23" r:id="rId20"/>
-    <sheet name="returfaktur" sheetId="43" r:id="rId21"/>
-    <sheet name="returfaktur_items" sheetId="44" r:id="rId22"/>
-    <sheet name="FakturJual" sheetId="25" r:id="rId23"/>
-    <sheet name="FakturJual_retur" sheetId="39" r:id="rId24"/>
-    <sheet name="FakturJual_listItemFaktur" sheetId="26" r:id="rId25"/>
-    <sheet name="PencairanPoin" sheetId="32" r:id="rId26"/>
-    <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId27"/>
-    <sheet name="pesan" sheetId="37" r:id="rId28"/>
+    <sheet name="periodeitemstok_itemstok" sheetId="45" r:id="rId9"/>
+    <sheet name="itemstok" sheetId="46" r:id="rId10"/>
+    <sheet name="BonusPenjualan" sheetId="16" r:id="rId11"/>
+    <sheet name="BonusPenjualan_items" sheetId="17" r:id="rId12"/>
+    <sheet name="PengeluaranBarang" sheetId="18" r:id="rId13"/>
+    <sheet name="PengeluaranBarang_items" sheetId="27" r:id="rId14"/>
+    <sheet name="Konsumen" sheetId="20" r:id="rId15"/>
+    <sheet name="Konsumen_FakturJual" sheetId="31" r:id="rId16"/>
+    <sheet name="Konsumen_listRiwayatPoin" sheetId="38" r:id="rId17"/>
+    <sheet name="Konsumen_hargaTerakhir" sheetId="21" r:id="rId18"/>
+    <sheet name="BilyetGiro" sheetId="30" r:id="rId19"/>
+    <sheet name="KewajibanPembayaran" sheetId="22" r:id="rId20"/>
+    <sheet name="kewajibanpembayaran_items" sheetId="23" r:id="rId21"/>
+    <sheet name="returfaktur" sheetId="43" r:id="rId22"/>
+    <sheet name="returfaktur_items" sheetId="44" r:id="rId23"/>
+    <sheet name="FakturJual" sheetId="25" r:id="rId24"/>
+    <sheet name="FakturJual_retur" sheetId="39" r:id="rId25"/>
+    <sheet name="FakturJual_listItemFaktur" sheetId="26" r:id="rId26"/>
+    <sheet name="PencairanPoin" sheetId="32" r:id="rId27"/>
+    <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId28"/>
+    <sheet name="pesan" sheetId="37" r:id="rId29"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -584,6 +582,9 @@
   </si>
   <si>
     <t>ongkosKirimBeli</t>
+  </si>
+  <si>
+    <t>listItem_id</t>
   </si>
 </sst>
 </file>
@@ -638,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -646,7 +647,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,6 +1213,400 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>41628</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>41649</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>41678</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>41649</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41651</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>41654</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41640</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>41672</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41640</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>41669</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>41672</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>41685</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>41685</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-18</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>41692</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>41646</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>40179</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>40188</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>40198</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1262,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D1"/>
@@ -1299,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L6"/>
@@ -1510,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:D6"/>
@@ -1617,7 +2011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:L5"/>
@@ -1804,7 +2198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:B5"/>
@@ -1865,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E1"/>
@@ -1905,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:C4"/>
@@ -1972,7 +2366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:I2"/>
@@ -2043,89 +2437,6 @@
       </c>
       <c r="I2" t="s">
         <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41749</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41749</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>41749</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -2232,6 +2543,89 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41749</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41749</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41749</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2301,7 +2695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -2359,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -2392,7 +2786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:R8"/>
@@ -2732,7 +3126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:C1"/>
@@ -2763,7 +3157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H11"/>
@@ -2986,7 +3380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:L1"/>
@@ -3051,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:D1"/>
@@ -3086,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:L1"/>
@@ -3148,7 +3542,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5057,404 +5451,273 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" s="3">
-        <v>41628</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" s="3">
-        <v>41649</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="3">
-        <v>41678</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-5</v>
       </c>
       <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-6</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="3">
-        <v>41649</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-6</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="3">
-        <v>41651</v>
-      </c>
-      <c r="F8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-7</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-8</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-9</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" s="3">
-        <v>41654</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" s="3">
-        <v>41640</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-11</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="3">
-        <v>41672</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-12</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="3">
-        <v>41640</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-13</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-12</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="3">
-        <v>41669</v>
-      </c>
-      <c r="F15">
+        <v>-14</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-13</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="3">
-        <v>41672</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-14</v>
       </c>
       <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="3">
-        <v>41685</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-15</v>
       </c>
       <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="3">
-        <v>41685</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-17</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-16</v>
       </c>
       <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="3">
-        <v>41692</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-18</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-17</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="3">
-        <v>41646</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-19</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-18</v>
       </c>
       <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="1">
-        <v>40179</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-20</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-18</v>
       </c>
       <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="1">
-        <v>40188</v>
-      </c>
-      <c r="F22">
+        <v>-21</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-18</v>
       </c>
       <c r="B23">
+        <v>-22</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23"/>
-      <c r="E23" s="1">
-        <v>40198</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/integration/project/data_penjualan.xlsx
+++ b/test/integration/project/data_penjualan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="14940" windowHeight="7455" tabRatio="788" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier" sheetId="6" r:id="rId1"/>
@@ -37,12 +37,15 @@
     <sheet name="PencairanPoin_Items" sheetId="33" r:id="rId28"/>
     <sheet name="pesan" sheetId="37" r:id="rId29"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -585,6 +588,9 @@
   </si>
   <si>
     <t>listItem_id</t>
+  </si>
+  <si>
+    <t>poinBerlaku</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2795,10 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2817,7 +2823,7 @@
     <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -2872,8 +2878,11 @@
       <c r="R1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2902,8 +2911,11 @@
       <c r="R2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -2935,8 +2947,11 @@
       <c r="R3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -2976,8 +2991,11 @@
       <c r="R4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3008,8 +3026,11 @@
       <c r="R5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -3043,8 +3064,11 @@
       <c r="R6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -3081,8 +3105,11 @@
       <c r="R7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -3118,6 +3145,9 @@
       </c>
       <c r="R8" t="b">
         <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5453,7 +5483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
